--- a/similarities/split_global/harmonic_similarity_timestamps_243.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_243.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,46 +484,56 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -532,666 +542,688 @@
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['D:hdim7/F', 'G:(3,5,b7,b9)', 'C:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:21.760000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:56.160000', '0:01:00.700000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=21.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=56.16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:56.480000')]</t>
+          <t>('0:01:14.520000', '0:01:17.020000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
+          <t>('0:00:10.598321', '0:00:14.743083')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=74.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=10.598321</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_117</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['C', 'F', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj'], ['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['F/3', 'Bb', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.620000', '0:00:09.860000'), ('0:00:08.180000', '0:00:10.480000')]</t>
+          <t>('0:00:01.110561', '0:00:06.213665')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:48.180000', '0:00:52.180000'), ('0:00:49.480000', '0:00:52.820000')]</t>
+          <t>('0:01:03.461000', '0:01:06.163000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-117#t=1.110561</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=48.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=49.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:00.440395', '0:00:07.142059')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000'), ('0:02:08.620000', '0:02:24')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=0.522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=128.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:24.640000', '0:00:33')]</t>
+          <t>('0:00:00.660000', '0:00:06.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:08.980000', '0:00:20.700000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=8.98</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:16.720000'), ('0:00:00.340000', '0:00:04.840000'), ('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:01:13.125602', '0:01:18.292043')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:39.160000', '0:00:42.240000'), ('0:00:10.820000', '0:00:17.080000'), ('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:23.280000', '0:00:27.940000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=12.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=73.125602</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=39.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=23.28</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:52.680839', '0:00:55.420793')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:00:54.400000', '0:01:01.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B', 'E/5', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
+          <t>('0:00:55.629773', '0:01:10.444104')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=53.82']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb'], ['Db', 'Ab', 'Db']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:31.260000'), ('0:00:00.780000', '0:00:24.040000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988'), ('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=19.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
+          <t>('0:00:02.360000', '0:00:11.660000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=21.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=233.34']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:41.960000', '0:03:17.420000')]</t>
+          <t>('0:00:36.640000', '0:00:38.520000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:40.020000')]</t>
+          <t>('0:00:22.680000', '0:00:41.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=161.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=36.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=22.68</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
